--- a/acquisition/data/saved/saving.xlsx
+++ b/acquisition/data/saved/saving.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,22 +454,38 @@
           <t>value_TC_102</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_TC_103</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value_TC_103</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.786799430847168</v>
+        <v>0.564537525177002</v>
       </c>
       <c r="C2" t="n">
-        <v>23.7984594</v>
+        <v>28.7716728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.786799430847168</v>
+        <v>0.564537525177002</v>
       </c>
       <c r="E2" t="n">
-        <v>24.0713066</v>
+        <v>28.9238183</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.564537525177002</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.5262642</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.642385482788086</v>
+        <v>1.328490495681763</v>
       </c>
       <c r="C3" t="n">
-        <v>23.7964031</v>
+        <v>28.7550362</v>
       </c>
       <c r="D3" t="n">
-        <v>1.642385482788086</v>
+        <v>1.328490495681763</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0780293</v>
+        <v>28.9346492</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.328490495681763</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.5179155</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.325127601623535</v>
+        <v>2.048565149307251</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7509878</v>
+        <v>28.7204427</v>
       </c>
       <c r="D4" t="n">
-        <v>2.325127601623535</v>
+        <v>2.048565149307251</v>
       </c>
       <c r="E4" t="n">
-        <v>24.0628057</v>
+        <v>28.9045265</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.048565149307251</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.4403962</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.053734302520752</v>
+        <v>2.717817068099976</v>
       </c>
       <c r="C5" t="n">
-        <v>23.7865181</v>
+        <v>28.7297876</v>
       </c>
       <c r="D5" t="n">
-        <v>3.053734302520752</v>
+        <v>2.717817068099976</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0672092</v>
+        <v>28.890577</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.717817068099976</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.3811963</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.700688362121582</v>
+        <v>3.452186822891235</v>
       </c>
       <c r="C6" t="n">
-        <v>23.7698206</v>
+        <v>28.7686248</v>
       </c>
       <c r="D6" t="n">
-        <v>3.700688362121582</v>
+        <v>3.452186822891235</v>
       </c>
       <c r="E6" t="n">
-        <v>24.1967085</v>
+        <v>28.87215</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.452186822891235</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28.3579055</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.443059206008911</v>
+        <v>4.125839233398438</v>
       </c>
       <c r="C7" t="n">
-        <v>23.6930237</v>
+        <v>28.8013956</v>
       </c>
       <c r="D7" t="n">
-        <v>4.443059206008911</v>
+        <v>4.125839233398438</v>
       </c>
       <c r="E7" t="n">
-        <v>28.2069409</v>
+        <v>28.8807753</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.125839233398438</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.4066754</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +608,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.150923728942871</v>
+        <v>4.78507661819458</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6795277</v>
+        <v>28.7536215</v>
       </c>
       <c r="D8" t="n">
-        <v>5.150923728942871</v>
+        <v>4.78507661819458</v>
       </c>
       <c r="E8" t="n">
-        <v>29.1689159</v>
+        <v>28.9027131</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.78507661819458</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.3909861</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.816107511520386</v>
+        <v>5.484202861785889</v>
       </c>
       <c r="C9" t="n">
-        <v>23.7345704</v>
+        <v>28.7418252</v>
       </c>
       <c r="D9" t="n">
-        <v>5.816107511520386</v>
+        <v>5.484202861785889</v>
       </c>
       <c r="E9" t="n">
-        <v>29.34104</v>
+        <v>28.9102664</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.484202861785889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28.4321351</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.508934020996094</v>
+        <v>6.203279733657837</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7876086</v>
+        <v>28.6946163</v>
       </c>
       <c r="D10" t="n">
-        <v>6.508934020996094</v>
+        <v>6.203279733657837</v>
       </c>
       <c r="E10" t="n">
-        <v>29.503145</v>
+        <v>28.9008425</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.203279733657837</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.4403627</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.2077476978302</v>
+        <v>6.908397912979126</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8047633</v>
+        <v>28.7063276</v>
       </c>
       <c r="D11" t="n">
-        <v>7.2077476978302</v>
+        <v>6.908397912979126</v>
       </c>
       <c r="E11" t="n">
-        <v>29.6391383</v>
+        <v>28.9156298</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.908397912979126</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.4675548</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +700,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.901597738265991</v>
+        <v>9.846609354019165</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1974341</v>
+        <v>28.7078214</v>
       </c>
       <c r="D12" t="n">
-        <v>7.901597738265991</v>
+        <v>9.846609354019165</v>
       </c>
       <c r="E12" t="n">
-        <v>29.1867883</v>
+        <v>28.9252694</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.846609354019165</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28.4917864</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +723,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.664886713027954</v>
+        <v>10.54778933525085</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8421176</v>
+        <v>28.7322528</v>
       </c>
       <c r="D13" t="n">
-        <v>8.664886713027954</v>
+        <v>10.54778933525085</v>
       </c>
       <c r="E13" t="n">
-        <v>28.7046782</v>
+        <v>28.9467087</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.54778933525085</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.4682734</v>
       </c>
     </row>
     <row r="14">
@@ -664,169 +746,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.374643087387085</v>
+        <v>11.21799778938293</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0882953</v>
+        <v>28.7815244</v>
       </c>
       <c r="D14" t="n">
-        <v>9.374643087387085</v>
+        <v>11.21799778938293</v>
       </c>
       <c r="E14" t="n">
-        <v>28.0313081</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10.06963419914246</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25.2987511</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.06963419914246</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.5513656</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10.76787853240967</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25.5191091</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.76787853240967</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.1431751</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11.4649395942688</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25.8298836</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.4649395942688</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26.7582974</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>12.22345209121704</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26.2551071</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.22345209121704</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26.4692703</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.91671633720398</v>
-      </c>
-      <c r="C19" t="n">
-        <v>26.4571588</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.91671633720398</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26.2629406</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>13.68061447143555</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26.3229389</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13.68061447143555</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25.9607297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>14.40618443489075</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.2511971</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.40618443489075</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25.8031171</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>15.11884665489197</v>
-      </c>
-      <c r="C22" t="n">
-        <v>26.1126152</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.11884665489197</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.633016</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>15.84619832038879</v>
-      </c>
-      <c r="C23" t="n">
-        <v>25.989923</v>
-      </c>
-      <c r="D23" t="n">
-        <v>15.84619832038879</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25.5190417</v>
+        <v>28.9303941</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.21799778938293</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28.4900641</v>
       </c>
     </row>
   </sheetData>

--- a/acquisition/data/saved/saving.xlsx
+++ b/acquisition/data/saved/saving.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7561230659484863</v>
+        <v>0.5964584350585938</v>
       </c>
       <c r="C2">
-        <v>24.741386</v>
+        <v>-33.9922592</v>
       </c>
       <c r="D2">
-        <v>0.7561230659484863</v>
+        <v>0.5964584350585938</v>
       </c>
       <c r="E2">
-        <v>24.4431065</v>
+        <v>-34.1628056</v>
       </c>
       <c r="F2">
-        <v>0.7561230659484863</v>
+        <v>0.5964584350585938</v>
       </c>
       <c r="G2">
-        <v>24.9000951</v>
+        <v>-34.0502473</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.545989751815796</v>
+        <v>1.314730167388916</v>
       </c>
       <c r="C3">
-        <v>24.7317544</v>
+        <v>-34.004518</v>
       </c>
       <c r="D3">
-        <v>1.545989751815796</v>
+        <v>1.314730167388916</v>
       </c>
       <c r="E3">
-        <v>24.4564557</v>
+        <v>-34.1614202</v>
       </c>
       <c r="F3">
-        <v>1.545989751815796</v>
+        <v>1.314730167388916</v>
       </c>
       <c r="G3">
-        <v>24.8857843</v>
+        <v>-34.0590358</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.409883260726929</v>
+        <v>1.980914115905762</v>
       </c>
       <c r="C4">
-        <v>24.7119816</v>
+        <v>-33.992547</v>
       </c>
       <c r="D4">
-        <v>3.409883260726929</v>
+        <v>1.980914115905762</v>
       </c>
       <c r="E4">
-        <v>24.4491743</v>
+        <v>-34.1534062</v>
       </c>
       <c r="F4">
-        <v>3.409883260726929</v>
+        <v>1.980914115905762</v>
       </c>
       <c r="G4">
-        <v>24.8795987</v>
+        <v>-34.0532572</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.217053651809692</v>
+        <v>2.664456605911255</v>
       </c>
       <c r="C5">
-        <v>24.6955278</v>
+        <v>-33.989709</v>
       </c>
       <c r="D5">
-        <v>4.217053651809692</v>
+        <v>2.664456605911255</v>
       </c>
       <c r="E5">
-        <v>24.461287</v>
+        <v>-34.1559035</v>
       </c>
       <c r="F5">
-        <v>4.217053651809692</v>
+        <v>2.664456605911255</v>
       </c>
       <c r="G5">
-        <v>24.8845311</v>
+        <v>-34.0597849</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.992089748382568</v>
+        <v>3.344908237457275</v>
       </c>
       <c r="C6">
-        <v>24.7094005</v>
+        <v>-33.9964952</v>
       </c>
       <c r="D6">
-        <v>4.992089748382568</v>
+        <v>3.344908237457275</v>
       </c>
       <c r="E6">
-        <v>24.4616019</v>
+        <v>-34.1537238</v>
       </c>
       <c r="F6">
-        <v>4.992089748382568</v>
+        <v>3.344908237457275</v>
       </c>
       <c r="G6">
-        <v>24.8738823</v>
+        <v>-34.0571793</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.724670648574829</v>
+        <v>4.030905246734619</v>
       </c>
       <c r="C7">
-        <v>24.6999837</v>
+        <v>-33.9880123</v>
       </c>
       <c r="D7">
-        <v>5.724670648574829</v>
+        <v>4.030905246734619</v>
       </c>
       <c r="E7">
-        <v>24.4607273</v>
+        <v>-34.1495926</v>
       </c>
       <c r="F7">
-        <v>5.724670648574829</v>
+        <v>4.030905246734619</v>
       </c>
       <c r="G7">
-        <v>24.8704882</v>
+        <v>-34.0691729</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,3311 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.517707347869873</v>
+        <v>4.694149255752563</v>
       </c>
       <c r="C8">
-        <v>24.6920744</v>
+        <v>-33.9851384</v>
       </c>
       <c r="D8">
-        <v>6.517707347869873</v>
+        <v>4.694149255752563</v>
       </c>
       <c r="E8">
-        <v>24.4625935</v>
+        <v>-34.1533999</v>
       </c>
       <c r="F8">
-        <v>6.517707347869873</v>
+        <v>4.694149255752563</v>
       </c>
       <c r="G8">
-        <v>24.8532987</v>
+        <v>-34.0782259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.42944598197937</v>
+      </c>
+      <c r="C9">
+        <v>-33.9889389</v>
+      </c>
+      <c r="D9">
+        <v>5.42944598197937</v>
+      </c>
+      <c r="E9">
+        <v>-34.149511</v>
+      </c>
+      <c r="F9">
+        <v>5.42944598197937</v>
+      </c>
+      <c r="G9">
+        <v>-34.0722693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6.212583303451538</v>
+      </c>
+      <c r="C10">
+        <v>-34.0074555</v>
+      </c>
+      <c r="D10">
+        <v>6.212583303451538</v>
+      </c>
+      <c r="E10">
+        <v>-34.1591988</v>
+      </c>
+      <c r="F10">
+        <v>6.212583303451538</v>
+      </c>
+      <c r="G10">
+        <v>-34.0728605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6.94426703453064</v>
+      </c>
+      <c r="C11">
+        <v>-34.0132995</v>
+      </c>
+      <c r="D11">
+        <v>6.94426703453064</v>
+      </c>
+      <c r="E11">
+        <v>-34.1478178</v>
+      </c>
+      <c r="F11">
+        <v>6.94426703453064</v>
+      </c>
+      <c r="G11">
+        <v>-34.0784755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7.665581703186035</v>
+      </c>
+      <c r="C12">
+        <v>-34.0074183</v>
+      </c>
+      <c r="D12">
+        <v>7.665581703186035</v>
+      </c>
+      <c r="E12">
+        <v>-34.1681323</v>
+      </c>
+      <c r="F12">
+        <v>7.665581703186035</v>
+      </c>
+      <c r="G12">
+        <v>-34.0791525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8.355570554733276</v>
+      </c>
+      <c r="C13">
+        <v>-34.0120512</v>
+      </c>
+      <c r="D13">
+        <v>8.355570554733276</v>
+      </c>
+      <c r="E13">
+        <v>-34.1569623</v>
+      </c>
+      <c r="F13">
+        <v>8.355570554733276</v>
+      </c>
+      <c r="G13">
+        <v>-34.0771587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9.056398868560791</v>
+      </c>
+      <c r="C14">
+        <v>-34.0005501</v>
+      </c>
+      <c r="D14">
+        <v>9.056398868560791</v>
+      </c>
+      <c r="E14">
+        <v>-34.1412847</v>
+      </c>
+      <c r="F14">
+        <v>9.056398868560791</v>
+      </c>
+      <c r="G14">
+        <v>-34.0811938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9.734855890274048</v>
+      </c>
+      <c r="C15">
+        <v>-33.9964762</v>
+      </c>
+      <c r="D15">
+        <v>9.734855890274048</v>
+      </c>
+      <c r="E15">
+        <v>-34.1632142</v>
+      </c>
+      <c r="F15">
+        <v>9.734855890274048</v>
+      </c>
+      <c r="G15">
+        <v>-34.0840635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10.41512823104858</v>
+      </c>
+      <c r="C16">
+        <v>-33.9904587</v>
+      </c>
+      <c r="D16">
+        <v>10.41512823104858</v>
+      </c>
+      <c r="E16">
+        <v>-34.1608534</v>
+      </c>
+      <c r="F16">
+        <v>10.41512823104858</v>
+      </c>
+      <c r="G16">
+        <v>-34.081728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>11.15578651428223</v>
+      </c>
+      <c r="C17">
+        <v>-34.0056549</v>
+      </c>
+      <c r="D17">
+        <v>11.15578651428223</v>
+      </c>
+      <c r="E17">
+        <v>-34.1709798</v>
+      </c>
+      <c r="F17">
+        <v>11.15578651428223</v>
+      </c>
+      <c r="G17">
+        <v>-34.069995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11.84746527671814</v>
+      </c>
+      <c r="C18">
+        <v>-33.9879223</v>
+      </c>
+      <c r="D18">
+        <v>11.84746527671814</v>
+      </c>
+      <c r="E18">
+        <v>-34.1617533</v>
+      </c>
+      <c r="F18">
+        <v>11.84746527671814</v>
+      </c>
+      <c r="G18">
+        <v>-34.0710703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12.54764008522034</v>
+      </c>
+      <c r="C19">
+        <v>-33.990959</v>
+      </c>
+      <c r="D19">
+        <v>12.54764008522034</v>
+      </c>
+      <c r="E19">
+        <v>-34.1439301</v>
+      </c>
+      <c r="F19">
+        <v>12.54764008522034</v>
+      </c>
+      <c r="G19">
+        <v>-34.0793002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>13.28202509880066</v>
+      </c>
+      <c r="C20">
+        <v>-33.9791227</v>
+      </c>
+      <c r="D20">
+        <v>13.28202509880066</v>
+      </c>
+      <c r="E20">
+        <v>-34.1475084</v>
+      </c>
+      <c r="F20">
+        <v>13.28202509880066</v>
+      </c>
+      <c r="G20">
+        <v>-34.0987482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>14.00146079063416</v>
+      </c>
+      <c r="C21">
+        <v>-33.9839789</v>
+      </c>
+      <c r="D21">
+        <v>14.00146079063416</v>
+      </c>
+      <c r="E21">
+        <v>-34.1466635</v>
+      </c>
+      <c r="F21">
+        <v>14.00146079063416</v>
+      </c>
+      <c r="G21">
+        <v>-34.091077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>14.69108271598816</v>
+      </c>
+      <c r="C22">
+        <v>-33.9862628</v>
+      </c>
+      <c r="D22">
+        <v>14.69108271598816</v>
+      </c>
+      <c r="E22">
+        <v>-34.1453784</v>
+      </c>
+      <c r="F22">
+        <v>14.69108271598816</v>
+      </c>
+      <c r="G22">
+        <v>-34.0675951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>15.42414140701294</v>
+      </c>
+      <c r="C23">
+        <v>-33.9866354</v>
+      </c>
+      <c r="D23">
+        <v>15.42414140701294</v>
+      </c>
+      <c r="E23">
+        <v>-34.1507085</v>
+      </c>
+      <c r="F23">
+        <v>15.42414140701294</v>
+      </c>
+      <c r="G23">
+        <v>-34.0677255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>16.13126730918884</v>
+      </c>
+      <c r="C24">
+        <v>-33.9930127</v>
+      </c>
+      <c r="D24">
+        <v>16.13126730918884</v>
+      </c>
+      <c r="E24">
+        <v>-34.1654458</v>
+      </c>
+      <c r="F24">
+        <v>16.13126730918884</v>
+      </c>
+      <c r="G24">
+        <v>-34.0627476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>16.79709029197693</v>
+      </c>
+      <c r="C25">
+        <v>-33.9898394</v>
+      </c>
+      <c r="D25">
+        <v>16.79709029197693</v>
+      </c>
+      <c r="E25">
+        <v>-34.1482003</v>
+      </c>
+      <c r="F25">
+        <v>16.79709029197693</v>
+      </c>
+      <c r="G25">
+        <v>-34.0608532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>17.51074981689453</v>
+      </c>
+      <c r="C26">
+        <v>-33.9842424</v>
+      </c>
+      <c r="D26">
+        <v>17.51074981689453</v>
+      </c>
+      <c r="E26">
+        <v>-34.1469849</v>
+      </c>
+      <c r="F26">
+        <v>17.51074981689453</v>
+      </c>
+      <c r="G26">
+        <v>-34.0577417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>18.27613019943237</v>
+      </c>
+      <c r="C27">
+        <v>-34.0082322</v>
+      </c>
+      <c r="D27">
+        <v>18.27613019943237</v>
+      </c>
+      <c r="E27">
+        <v>-34.1632178</v>
+      </c>
+      <c r="F27">
+        <v>18.27613019943237</v>
+      </c>
+      <c r="G27">
+        <v>-34.0471769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>19.02700209617615</v>
+      </c>
+      <c r="C28">
+        <v>-34.0061832</v>
+      </c>
+      <c r="D28">
+        <v>19.02700209617615</v>
+      </c>
+      <c r="E28">
+        <v>-34.1602468</v>
+      </c>
+      <c r="F28">
+        <v>19.02700209617615</v>
+      </c>
+      <c r="G28">
+        <v>-34.0519435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>19.76730108261108</v>
+      </c>
+      <c r="C29">
+        <v>-33.9964642</v>
+      </c>
+      <c r="D29">
+        <v>19.76730108261108</v>
+      </c>
+      <c r="E29">
+        <v>-34.1626634</v>
+      </c>
+      <c r="F29">
+        <v>19.76730108261108</v>
+      </c>
+      <c r="G29">
+        <v>-34.0485461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>20.530677318573</v>
+      </c>
+      <c r="C30">
+        <v>-33.9892809</v>
+      </c>
+      <c r="D30">
+        <v>20.530677318573</v>
+      </c>
+      <c r="E30">
+        <v>-34.1429929</v>
+      </c>
+      <c r="F30">
+        <v>20.530677318573</v>
+      </c>
+      <c r="G30">
+        <v>-34.0497943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>21.26693391799927</v>
+      </c>
+      <c r="C31">
+        <v>-33.9794567</v>
+      </c>
+      <c r="D31">
+        <v>21.26693391799927</v>
+      </c>
+      <c r="E31">
+        <v>-34.1443658</v>
+      </c>
+      <c r="F31">
+        <v>21.26693391799927</v>
+      </c>
+      <c r="G31">
+        <v>-34.0419438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>22.00045824050903</v>
+      </c>
+      <c r="C32">
+        <v>-33.9881941</v>
+      </c>
+      <c r="D32">
+        <v>22.00045824050903</v>
+      </c>
+      <c r="E32">
+        <v>-34.141092</v>
+      </c>
+      <c r="F32">
+        <v>22.00045824050903</v>
+      </c>
+      <c r="G32">
+        <v>-34.0487882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>22.74829292297363</v>
+      </c>
+      <c r="C33">
+        <v>-33.9871943</v>
+      </c>
+      <c r="D33">
+        <v>22.74829292297363</v>
+      </c>
+      <c r="E33">
+        <v>-34.1560325</v>
+      </c>
+      <c r="F33">
+        <v>22.74829292297363</v>
+      </c>
+      <c r="G33">
+        <v>-34.0320067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>23.53266215324402</v>
+      </c>
+      <c r="C34">
+        <v>-34.0025516</v>
+      </c>
+      <c r="D34">
+        <v>23.53266215324402</v>
+      </c>
+      <c r="E34">
+        <v>-34.1568814</v>
+      </c>
+      <c r="F34">
+        <v>23.53266215324402</v>
+      </c>
+      <c r="G34">
+        <v>-34.0430826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>24.2670533657074</v>
+      </c>
+      <c r="C35">
+        <v>-33.9909821</v>
+      </c>
+      <c r="D35">
+        <v>24.2670533657074</v>
+      </c>
+      <c r="E35">
+        <v>-34.1579003</v>
+      </c>
+      <c r="F35">
+        <v>24.2670533657074</v>
+      </c>
+      <c r="G35">
+        <v>-34.0441944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>24.97335028648376</v>
+      </c>
+      <c r="C36">
+        <v>-34.0034707</v>
+      </c>
+      <c r="D36">
+        <v>24.97335028648376</v>
+      </c>
+      <c r="E36">
+        <v>-34.152847</v>
+      </c>
+      <c r="F36">
+        <v>24.97335028648376</v>
+      </c>
+      <c r="G36">
+        <v>-34.0322275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>25.67389321327209</v>
+      </c>
+      <c r="C37">
+        <v>-33.9929631</v>
+      </c>
+      <c r="D37">
+        <v>25.67389321327209</v>
+      </c>
+      <c r="E37">
+        <v>-34.1531018</v>
+      </c>
+      <c r="F37">
+        <v>25.67389321327209</v>
+      </c>
+      <c r="G37">
+        <v>-34.0430155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>26.38076615333557</v>
+      </c>
+      <c r="C38">
+        <v>-33.9849269</v>
+      </c>
+      <c r="D38">
+        <v>26.38076615333557</v>
+      </c>
+      <c r="E38">
+        <v>-34.1758311</v>
+      </c>
+      <c r="F38">
+        <v>26.38076615333557</v>
+      </c>
+      <c r="G38">
+        <v>-34.0496571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>27.11374425888062</v>
+      </c>
+      <c r="C39">
+        <v>-34.0049235</v>
+      </c>
+      <c r="D39">
+        <v>27.11374425888062</v>
+      </c>
+      <c r="E39">
+        <v>-34.1484093</v>
+      </c>
+      <c r="F39">
+        <v>27.11374425888062</v>
+      </c>
+      <c r="G39">
+        <v>-34.0426388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>27.86352968215942</v>
+      </c>
+      <c r="C40">
+        <v>-34.0052322</v>
+      </c>
+      <c r="D40">
+        <v>27.86352968215942</v>
+      </c>
+      <c r="E40">
+        <v>-34.1612214</v>
+      </c>
+      <c r="F40">
+        <v>27.86352968215942</v>
+      </c>
+      <c r="G40">
+        <v>-34.0524335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>28.61181664466858</v>
+      </c>
+      <c r="C41">
+        <v>-34.0130821</v>
+      </c>
+      <c r="D41">
+        <v>28.61181664466858</v>
+      </c>
+      <c r="E41">
+        <v>-34.1763614</v>
+      </c>
+      <c r="F41">
+        <v>28.61181664466858</v>
+      </c>
+      <c r="G41">
+        <v>-34.0642158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>29.31238555908203</v>
+      </c>
+      <c r="C42">
+        <v>-33.9978863</v>
+      </c>
+      <c r="D42">
+        <v>29.31238555908203</v>
+      </c>
+      <c r="E42">
+        <v>-34.1632412</v>
+      </c>
+      <c r="F42">
+        <v>29.31238555908203</v>
+      </c>
+      <c r="G42">
+        <v>-34.054198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>29.99771523475647</v>
+      </c>
+      <c r="C43">
+        <v>-33.9910924</v>
+      </c>
+      <c r="D43">
+        <v>29.99771523475647</v>
+      </c>
+      <c r="E43">
+        <v>-34.1635145</v>
+      </c>
+      <c r="F43">
+        <v>29.99771523475647</v>
+      </c>
+      <c r="G43">
+        <v>-34.066999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>30.72071886062622</v>
+      </c>
+      <c r="C44">
+        <v>-33.995278</v>
+      </c>
+      <c r="D44">
+        <v>30.72071886062622</v>
+      </c>
+      <c r="E44">
+        <v>-34.1722556</v>
+      </c>
+      <c r="F44">
+        <v>30.72071886062622</v>
+      </c>
+      <c r="G44">
+        <v>-34.0607009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>31.41250681877136</v>
+      </c>
+      <c r="C45">
+        <v>-33.9826344</v>
+      </c>
+      <c r="D45">
+        <v>31.41250681877136</v>
+      </c>
+      <c r="E45">
+        <v>-34.1512886</v>
+      </c>
+      <c r="F45">
+        <v>31.41250681877136</v>
+      </c>
+      <c r="G45">
+        <v>-34.0720735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>32.16364192962646</v>
+      </c>
+      <c r="C46">
+        <v>-33.9802622</v>
+      </c>
+      <c r="D46">
+        <v>32.16364192962646</v>
+      </c>
+      <c r="E46">
+        <v>-34.1680372</v>
+      </c>
+      <c r="F46">
+        <v>32.16364192962646</v>
+      </c>
+      <c r="G46">
+        <v>-34.0564526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>32.87993907928467</v>
+      </c>
+      <c r="C47">
+        <v>-33.9814483</v>
+      </c>
+      <c r="D47">
+        <v>32.87993907928467</v>
+      </c>
+      <c r="E47">
+        <v>-34.1626386</v>
+      </c>
+      <c r="F47">
+        <v>32.87993907928467</v>
+      </c>
+      <c r="G47">
+        <v>-34.0568191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>33.59534811973572</v>
+      </c>
+      <c r="C48">
+        <v>-33.9923176</v>
+      </c>
+      <c r="D48">
+        <v>33.59534811973572</v>
+      </c>
+      <c r="E48">
+        <v>-34.1522864</v>
+      </c>
+      <c r="F48">
+        <v>33.59534811973572</v>
+      </c>
+      <c r="G48">
+        <v>-34.0572412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>34.29636764526367</v>
+      </c>
+      <c r="C49">
+        <v>-34.0039865</v>
+      </c>
+      <c r="D49">
+        <v>34.29636764526367</v>
+      </c>
+      <c r="E49">
+        <v>-34.1557467</v>
+      </c>
+      <c r="F49">
+        <v>34.29636764526367</v>
+      </c>
+      <c r="G49">
+        <v>-34.0461548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>34.99232339859009</v>
+      </c>
+      <c r="C50">
+        <v>-33.9841014</v>
+      </c>
+      <c r="D50">
+        <v>34.99232339859009</v>
+      </c>
+      <c r="E50">
+        <v>-34.1699463</v>
+      </c>
+      <c r="F50">
+        <v>34.99232339859009</v>
+      </c>
+      <c r="G50">
+        <v>-34.0357912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>35.69592261314392</v>
+      </c>
+      <c r="C51">
+        <v>-33.987728</v>
+      </c>
+      <c r="D51">
+        <v>35.69592261314392</v>
+      </c>
+      <c r="E51">
+        <v>-34.1560863</v>
+      </c>
+      <c r="F51">
+        <v>35.69592261314392</v>
+      </c>
+      <c r="G51">
+        <v>-34.0309717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>36.38018226623535</v>
+      </c>
+      <c r="C52">
+        <v>-34.0002414</v>
+      </c>
+      <c r="D52">
+        <v>36.38018226623535</v>
+      </c>
+      <c r="E52">
+        <v>-34.1568442</v>
+      </c>
+      <c r="F52">
+        <v>36.38018226623535</v>
+      </c>
+      <c r="G52">
+        <v>-34.0423435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>37.12997460365295</v>
+      </c>
+      <c r="C53">
+        <v>-34.0020051</v>
+      </c>
+      <c r="D53">
+        <v>37.12997460365295</v>
+      </c>
+      <c r="E53">
+        <v>-34.1523589</v>
+      </c>
+      <c r="F53">
+        <v>37.12997460365295</v>
+      </c>
+      <c r="G53">
+        <v>-34.0252145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>37.85946679115295</v>
+      </c>
+      <c r="C54">
+        <v>-33.982611</v>
+      </c>
+      <c r="D54">
+        <v>37.85946679115295</v>
+      </c>
+      <c r="E54">
+        <v>-34.1757799</v>
+      </c>
+      <c r="F54">
+        <v>37.85946679115295</v>
+      </c>
+      <c r="G54">
+        <v>-34.0281521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>38.53779649734497</v>
+      </c>
+      <c r="C55">
+        <v>-33.9935903</v>
+      </c>
+      <c r="D55">
+        <v>38.53779649734497</v>
+      </c>
+      <c r="E55">
+        <v>-34.176134</v>
+      </c>
+      <c r="F55">
+        <v>38.53779649734497</v>
+      </c>
+      <c r="G55">
+        <v>-34.0194326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>39.27923536300659</v>
+      </c>
+      <c r="C56">
+        <v>-33.9892374</v>
+      </c>
+      <c r="D56">
+        <v>39.27923536300659</v>
+      </c>
+      <c r="E56">
+        <v>-34.1560139</v>
+      </c>
+      <c r="F56">
+        <v>39.27923536300659</v>
+      </c>
+      <c r="G56">
+        <v>-34.010773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>39.94369864463806</v>
+      </c>
+      <c r="C57">
+        <v>-34.0070482</v>
+      </c>
+      <c r="D57">
+        <v>39.94369864463806</v>
+      </c>
+      <c r="E57">
+        <v>-34.142645</v>
+      </c>
+      <c r="F57">
+        <v>39.94369864463806</v>
+      </c>
+      <c r="G57">
+        <v>-34.0186354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>40.6561119556427</v>
+      </c>
+      <c r="C58">
+        <v>-33.997228</v>
+      </c>
+      <c r="D58">
+        <v>40.6561119556427</v>
+      </c>
+      <c r="E58">
+        <v>-34.1630424</v>
+      </c>
+      <c r="F58">
+        <v>40.6561119556427</v>
+      </c>
+      <c r="G58">
+        <v>-34.0298642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>41.31259155273438</v>
+      </c>
+      <c r="C59">
+        <v>-33.999265</v>
+      </c>
+      <c r="D59">
+        <v>41.31259155273438</v>
+      </c>
+      <c r="E59">
+        <v>-34.154345</v>
+      </c>
+      <c r="F59">
+        <v>41.31259155273438</v>
+      </c>
+      <c r="G59">
+        <v>-34.0185114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>42.06371760368347</v>
+      </c>
+      <c r="C60">
+        <v>-33.9990458</v>
+      </c>
+      <c r="D60">
+        <v>42.06371760368347</v>
+      </c>
+      <c r="E60">
+        <v>-34.1483027</v>
+      </c>
+      <c r="F60">
+        <v>42.06371760368347</v>
+      </c>
+      <c r="G60">
+        <v>-34.0283676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>42.79994511604309</v>
+      </c>
+      <c r="C61">
+        <v>-33.9921774</v>
+      </c>
+      <c r="D61">
+        <v>42.79994511604309</v>
+      </c>
+      <c r="E61">
+        <v>-34.1663684</v>
+      </c>
+      <c r="F61">
+        <v>42.79994511604309</v>
+      </c>
+      <c r="G61">
+        <v>-34.0389133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>43.52775430679321</v>
+      </c>
+      <c r="C62">
+        <v>-33.9951945</v>
+      </c>
+      <c r="D62">
+        <v>43.52775430679321</v>
+      </c>
+      <c r="E62">
+        <v>-34.144187</v>
+      </c>
+      <c r="F62">
+        <v>43.52775430679321</v>
+      </c>
+      <c r="G62">
+        <v>-34.0409264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>44.26665782928467</v>
+      </c>
+      <c r="C63">
+        <v>-34.0024977</v>
+      </c>
+      <c r="D63">
+        <v>44.26665782928467</v>
+      </c>
+      <c r="E63">
+        <v>-34.167384</v>
+      </c>
+      <c r="F63">
+        <v>44.26665782928467</v>
+      </c>
+      <c r="G63">
+        <v>-34.0567579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>44.94026732444763</v>
+      </c>
+      <c r="C64">
+        <v>-34.0046979</v>
+      </c>
+      <c r="D64">
+        <v>44.94026732444763</v>
+      </c>
+      <c r="E64">
+        <v>-34.1560812</v>
+      </c>
+      <c r="F64">
+        <v>44.94026732444763</v>
+      </c>
+      <c r="G64">
+        <v>-34.0437583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>45.64186406135559</v>
+      </c>
+      <c r="C65">
+        <v>-33.9926439</v>
+      </c>
+      <c r="D65">
+        <v>45.64186406135559</v>
+      </c>
+      <c r="E65">
+        <v>-34.16248</v>
+      </c>
+      <c r="F65">
+        <v>45.64186406135559</v>
+      </c>
+      <c r="G65">
+        <v>-34.0404604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>46.41149353981018</v>
+      </c>
+      <c r="C66">
+        <v>-33.9791744</v>
+      </c>
+      <c r="D66">
+        <v>46.41149353981018</v>
+      </c>
+      <c r="E66">
+        <v>-34.1585413</v>
+      </c>
+      <c r="F66">
+        <v>46.41149353981018</v>
+      </c>
+      <c r="G66">
+        <v>-34.0520063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>47.1135950088501</v>
+      </c>
+      <c r="C67">
+        <v>-33.9908182</v>
+      </c>
+      <c r="D67">
+        <v>47.1135950088501</v>
+      </c>
+      <c r="E67">
+        <v>-34.1623185</v>
+      </c>
+      <c r="F67">
+        <v>47.1135950088501</v>
+      </c>
+      <c r="G67">
+        <v>-34.044957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>47.77717876434326</v>
+      </c>
+      <c r="C68">
+        <v>-33.9907951</v>
+      </c>
+      <c r="D68">
+        <v>47.77717876434326</v>
+      </c>
+      <c r="E68">
+        <v>-34.1539232</v>
+      </c>
+      <c r="F68">
+        <v>47.77717876434326</v>
+      </c>
+      <c r="G68">
+        <v>-34.0338955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>48.42404127120972</v>
+      </c>
+      <c r="C69">
+        <v>-33.9962103</v>
+      </c>
+      <c r="D69">
+        <v>48.42404127120972</v>
+      </c>
+      <c r="E69">
+        <v>-34.1369949</v>
+      </c>
+      <c r="F69">
+        <v>48.42404127120972</v>
+      </c>
+      <c r="G69">
+        <v>-34.0606891</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>49.20432114601135</v>
+      </c>
+      <c r="C70">
+        <v>-33.9979053</v>
+      </c>
+      <c r="D70">
+        <v>49.20432114601135</v>
+      </c>
+      <c r="E70">
+        <v>-34.1411301</v>
+      </c>
+      <c r="F70">
+        <v>49.20432114601135</v>
+      </c>
+      <c r="G70">
+        <v>-34.0440523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>49.86078548431396</v>
+      </c>
+      <c r="C71">
+        <v>-34.0047117</v>
+      </c>
+      <c r="D71">
+        <v>49.86078548431396</v>
+      </c>
+      <c r="E71">
+        <v>-34.1511069</v>
+      </c>
+      <c r="F71">
+        <v>49.86078548431396</v>
+      </c>
+      <c r="G71">
+        <v>-34.0276809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>50.56207227706909</v>
+      </c>
+      <c r="C72">
+        <v>-33.9995586</v>
+      </c>
+      <c r="D72">
+        <v>50.56207227706909</v>
+      </c>
+      <c r="E72">
+        <v>-34.1585112</v>
+      </c>
+      <c r="F72">
+        <v>50.56207227706909</v>
+      </c>
+      <c r="G72">
+        <v>-34.0551233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>51.22540283203125</v>
+      </c>
+      <c r="C73">
+        <v>-33.9985836</v>
+      </c>
+      <c r="D73">
+        <v>51.22540283203125</v>
+      </c>
+      <c r="E73">
+        <v>-34.1642702</v>
+      </c>
+      <c r="F73">
+        <v>51.22540283203125</v>
+      </c>
+      <c r="G73">
+        <v>-34.0406396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>51.9105589389801</v>
+      </c>
+      <c r="C74">
+        <v>-34.0176395</v>
+      </c>
+      <c r="D74">
+        <v>51.9105589389801</v>
+      </c>
+      <c r="E74">
+        <v>-34.1726208</v>
+      </c>
+      <c r="F74">
+        <v>51.9105589389801</v>
+      </c>
+      <c r="G74">
+        <v>-34.0547933</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>52.595370054245</v>
+      </c>
+      <c r="C75">
+        <v>-34.0093425</v>
+      </c>
+      <c r="D75">
+        <v>52.595370054245</v>
+      </c>
+      <c r="E75">
+        <v>-34.1731053</v>
+      </c>
+      <c r="F75">
+        <v>52.595370054245</v>
+      </c>
+      <c r="G75">
+        <v>-34.0488556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>53.34310150146484</v>
+      </c>
+      <c r="C76">
+        <v>-34.0102692</v>
+      </c>
+      <c r="D76">
+        <v>53.34310150146484</v>
+      </c>
+      <c r="E76">
+        <v>-34.1812307</v>
+      </c>
+      <c r="F76">
+        <v>53.34310150146484</v>
+      </c>
+      <c r="G76">
+        <v>-34.0504799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>54.03354048728943</v>
+      </c>
+      <c r="C77">
+        <v>-34.0138526</v>
+      </c>
+      <c r="D77">
+        <v>54.03354048728943</v>
+      </c>
+      <c r="E77">
+        <v>-34.1730921</v>
+      </c>
+      <c r="F77">
+        <v>54.03354048728943</v>
+      </c>
+      <c r="G77">
+        <v>-34.0380148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>54.83707618713379</v>
+      </c>
+      <c r="C78">
+        <v>-33.9913146</v>
+      </c>
+      <c r="D78">
+        <v>54.83707618713379</v>
+      </c>
+      <c r="E78">
+        <v>-34.1675348</v>
+      </c>
+      <c r="F78">
+        <v>54.83707618713379</v>
+      </c>
+      <c r="G78">
+        <v>-34.0571947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>55.52399826049805</v>
+      </c>
+      <c r="C79">
+        <v>-34.0108209</v>
+      </c>
+      <c r="D79">
+        <v>55.52399826049805</v>
+      </c>
+      <c r="E79">
+        <v>-34.1570172</v>
+      </c>
+      <c r="F79">
+        <v>55.52399826049805</v>
+      </c>
+      <c r="G79">
+        <v>-34.0499279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>56.24132943153381</v>
+      </c>
+      <c r="C80">
+        <v>-34.0092931</v>
+      </c>
+      <c r="D80">
+        <v>56.24132943153381</v>
+      </c>
+      <c r="E80">
+        <v>-34.1762138</v>
+      </c>
+      <c r="F80">
+        <v>56.24132943153381</v>
+      </c>
+      <c r="G80">
+        <v>-34.0500832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>56.91366243362427</v>
+      </c>
+      <c r="C81">
+        <v>-34.0126529</v>
+      </c>
+      <c r="D81">
+        <v>56.91366243362427</v>
+      </c>
+      <c r="E81">
+        <v>-34.1553088</v>
+      </c>
+      <c r="F81">
+        <v>56.91366243362427</v>
+      </c>
+      <c r="G81">
+        <v>-34.045189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>57.57203650474548</v>
+      </c>
+      <c r="C82">
+        <v>-34.0046186</v>
+      </c>
+      <c r="D82">
+        <v>57.57203650474548</v>
+      </c>
+      <c r="E82">
+        <v>-34.1567291</v>
+      </c>
+      <c r="F82">
+        <v>57.57203650474548</v>
+      </c>
+      <c r="G82">
+        <v>-34.0482135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>58.2783625125885</v>
+      </c>
+      <c r="C83">
+        <v>-34.0038175</v>
+      </c>
+      <c r="D83">
+        <v>58.2783625125885</v>
+      </c>
+      <c r="E83">
+        <v>-34.158599</v>
+      </c>
+      <c r="F83">
+        <v>58.2783625125885</v>
+      </c>
+      <c r="G83">
+        <v>-34.0467105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>58.9621844291687</v>
+      </c>
+      <c r="C84">
+        <v>-33.9816861</v>
+      </c>
+      <c r="D84">
+        <v>58.9621844291687</v>
+      </c>
+      <c r="E84">
+        <v>-34.1539265</v>
+      </c>
+      <c r="F84">
+        <v>58.9621844291687</v>
+      </c>
+      <c r="G84">
+        <v>-34.0399999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>59.62842559814453</v>
+      </c>
+      <c r="C85">
+        <v>-33.9872626</v>
+      </c>
+      <c r="D85">
+        <v>59.62842559814453</v>
+      </c>
+      <c r="E85">
+        <v>-34.1678237</v>
+      </c>
+      <c r="F85">
+        <v>59.62842559814453</v>
+      </c>
+      <c r="G85">
+        <v>-34.0374721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>60.31671237945557</v>
+      </c>
+      <c r="C86">
+        <v>-33.9843874</v>
+      </c>
+      <c r="D86">
+        <v>60.31671237945557</v>
+      </c>
+      <c r="E86">
+        <v>-34.1626922</v>
+      </c>
+      <c r="F86">
+        <v>60.31671237945557</v>
+      </c>
+      <c r="G86">
+        <v>-34.0518625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>60.99506616592407</v>
+      </c>
+      <c r="C87">
+        <v>-33.9870453</v>
+      </c>
+      <c r="D87">
+        <v>60.99506616592407</v>
+      </c>
+      <c r="E87">
+        <v>-34.1585609</v>
+      </c>
+      <c r="F87">
+        <v>60.99506616592407</v>
+      </c>
+      <c r="G87">
+        <v>-34.0527321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>61.67809391021729</v>
+      </c>
+      <c r="C88">
+        <v>-33.9980664</v>
+      </c>
+      <c r="D88">
+        <v>61.67809391021729</v>
+      </c>
+      <c r="E88">
+        <v>-34.1657635</v>
+      </c>
+      <c r="F88">
+        <v>61.67809391021729</v>
+      </c>
+      <c r="G88">
+        <v>-34.0745953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>62.34742617607117</v>
+      </c>
+      <c r="C89">
+        <v>-33.9967188</v>
+      </c>
+      <c r="D89">
+        <v>62.34742617607117</v>
+      </c>
+      <c r="E89">
+        <v>-34.1667388</v>
+      </c>
+      <c r="F89">
+        <v>62.34742617607117</v>
+      </c>
+      <c r="G89">
+        <v>-34.076235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>63.01588678359985</v>
+      </c>
+      <c r="C90">
+        <v>-34.0000989</v>
+      </c>
+      <c r="D90">
+        <v>63.01588678359985</v>
+      </c>
+      <c r="E90">
+        <v>-34.1657177</v>
+      </c>
+      <c r="F90">
+        <v>63.01588678359985</v>
+      </c>
+      <c r="G90">
+        <v>-34.0577071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>63.70388460159302</v>
+      </c>
+      <c r="C91">
+        <v>-33.9906968</v>
+      </c>
+      <c r="D91">
+        <v>63.70388460159302</v>
+      </c>
+      <c r="E91">
+        <v>-34.1692402</v>
+      </c>
+      <c r="F91">
+        <v>63.70388460159302</v>
+      </c>
+      <c r="G91">
+        <v>-34.0662721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>64.39484620094299</v>
+      </c>
+      <c r="C92">
+        <v>-34.0061956</v>
+      </c>
+      <c r="D92">
+        <v>64.39484620094299</v>
+      </c>
+      <c r="E92">
+        <v>-34.1730632</v>
+      </c>
+      <c r="F92">
+        <v>64.39484620094299</v>
+      </c>
+      <c r="G92">
+        <v>-34.0742164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>65.0511040687561</v>
+      </c>
+      <c r="C93">
+        <v>-34.0068352</v>
+      </c>
+      <c r="D93">
+        <v>65.0511040687561</v>
+      </c>
+      <c r="E93">
+        <v>-34.1747344</v>
+      </c>
+      <c r="F93">
+        <v>65.0511040687561</v>
+      </c>
+      <c r="G93">
+        <v>-34.0785332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>65.75806999206543</v>
+      </c>
+      <c r="C94">
+        <v>-33.9995123</v>
+      </c>
+      <c r="D94">
+        <v>65.75806999206543</v>
+      </c>
+      <c r="E94">
+        <v>-34.1542362</v>
+      </c>
+      <c r="F94">
+        <v>65.75806999206543</v>
+      </c>
+      <c r="G94">
+        <v>-34.0676768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>66.44359612464905</v>
+      </c>
+      <c r="C95">
+        <v>-33.9993012</v>
+      </c>
+      <c r="D95">
+        <v>66.44359612464905</v>
+      </c>
+      <c r="E95">
+        <v>-34.1534969</v>
+      </c>
+      <c r="F95">
+        <v>66.44359612464905</v>
+      </c>
+      <c r="G95">
+        <v>-34.0815837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>67.12915754318237</v>
+      </c>
+      <c r="C96">
+        <v>-34.0032553</v>
+      </c>
+      <c r="D96">
+        <v>67.12915754318237</v>
+      </c>
+      <c r="E96">
+        <v>-34.1592518</v>
+      </c>
+      <c r="F96">
+        <v>67.12915754318237</v>
+      </c>
+      <c r="G96">
+        <v>-34.0908699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>67.82363677024841</v>
+      </c>
+      <c r="C97">
+        <v>-34.0021809</v>
+      </c>
+      <c r="D97">
+        <v>67.82363677024841</v>
+      </c>
+      <c r="E97">
+        <v>-34.1714221</v>
+      </c>
+      <c r="F97">
+        <v>67.82363677024841</v>
+      </c>
+      <c r="G97">
+        <v>-34.0705154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>68.57919573783875</v>
+      </c>
+      <c r="C98">
+        <v>-33.9934512</v>
+      </c>
+      <c r="D98">
+        <v>68.57919573783875</v>
+      </c>
+      <c r="E98">
+        <v>-34.1568081</v>
+      </c>
+      <c r="F98">
+        <v>68.57919573783875</v>
+      </c>
+      <c r="G98">
+        <v>-34.0794408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>69.26044178009033</v>
+      </c>
+      <c r="C99">
+        <v>-33.9935506</v>
+      </c>
+      <c r="D99">
+        <v>69.26044178009033</v>
+      </c>
+      <c r="E99">
+        <v>-34.174141</v>
+      </c>
+      <c r="F99">
+        <v>69.26044178009033</v>
+      </c>
+      <c r="G99">
+        <v>-34.0824844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>69.96085357666016</v>
+      </c>
+      <c r="C100">
+        <v>-33.9994396</v>
+      </c>
+      <c r="D100">
+        <v>69.96085357666016</v>
+      </c>
+      <c r="E100">
+        <v>-34.1521217</v>
+      </c>
+      <c r="F100">
+        <v>69.96085357666016</v>
+      </c>
+      <c r="G100">
+        <v>-34.0612108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>70.67786884307861</v>
+      </c>
+      <c r="C101">
+        <v>-33.9913478</v>
+      </c>
+      <c r="D101">
+        <v>70.67786884307861</v>
+      </c>
+      <c r="E101">
+        <v>-34.1590236</v>
+      </c>
+      <c r="F101">
+        <v>70.67786884307861</v>
+      </c>
+      <c r="G101">
+        <v>-34.071571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>71.37911605834961</v>
+      </c>
+      <c r="C102">
+        <v>-33.9915045</v>
+      </c>
+      <c r="D102">
+        <v>71.37911605834961</v>
+      </c>
+      <c r="E102">
+        <v>-34.1588079</v>
+      </c>
+      <c r="F102">
+        <v>71.37911605834961</v>
+      </c>
+      <c r="G102">
+        <v>-34.0736289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>72.11148715019226</v>
+      </c>
+      <c r="C103">
+        <v>-34.0010743</v>
+      </c>
+      <c r="D103">
+        <v>72.11148715019226</v>
+      </c>
+      <c r="E103">
+        <v>-34.1517196</v>
+      </c>
+      <c r="F103">
+        <v>72.11148715019226</v>
+      </c>
+      <c r="G103">
+        <v>-34.0749084</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>72.8619282245636</v>
+      </c>
+      <c r="C104">
+        <v>-33.9867603</v>
+      </c>
+      <c r="D104">
+        <v>72.8619282245636</v>
+      </c>
+      <c r="E104">
+        <v>-34.1686506</v>
+      </c>
+      <c r="F104">
+        <v>72.8619282245636</v>
+      </c>
+      <c r="G104">
+        <v>-34.0825523</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>73.57202768325806</v>
+      </c>
+      <c r="C105">
+        <v>-33.9770045</v>
+      </c>
+      <c r="D105">
+        <v>73.57202768325806</v>
+      </c>
+      <c r="E105">
+        <v>-34.1534488</v>
+      </c>
+      <c r="F105">
+        <v>73.57202768325806</v>
+      </c>
+      <c r="G105">
+        <v>-34.0576144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>74.27719354629517</v>
+      </c>
+      <c r="C106">
+        <v>-33.9956393</v>
+      </c>
+      <c r="D106">
+        <v>74.27719354629517</v>
+      </c>
+      <c r="E106">
+        <v>-34.1629297</v>
+      </c>
+      <c r="F106">
+        <v>74.27719354629517</v>
+      </c>
+      <c r="G106">
+        <v>-33.0255571</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>74.93826270103455</v>
+      </c>
+      <c r="C107">
+        <v>-33.9955151</v>
+      </c>
+      <c r="D107">
+        <v>74.93826270103455</v>
+      </c>
+      <c r="E107">
+        <v>-34.1563073</v>
+      </c>
+      <c r="F107">
+        <v>74.93826270103455</v>
+      </c>
+      <c r="G107">
+        <v>-30.5247448</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>75.62912201881409</v>
+      </c>
+      <c r="C108">
+        <v>-33.996833</v>
+      </c>
+      <c r="D108">
+        <v>75.62912201881409</v>
+      </c>
+      <c r="E108">
+        <v>-34.168048</v>
+      </c>
+      <c r="F108">
+        <v>75.62912201881409</v>
+      </c>
+      <c r="G108">
+        <v>-29.086098</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>76.31779885292053</v>
+      </c>
+      <c r="C109">
+        <v>-33.9996897</v>
+      </c>
+      <c r="D109">
+        <v>76.31779885292053</v>
+      </c>
+      <c r="E109">
+        <v>-34.1491685</v>
+      </c>
+      <c r="F109">
+        <v>76.31779885292053</v>
+      </c>
+      <c r="G109">
+        <v>-29.9559775</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>77.02202248573303</v>
+      </c>
+      <c r="C110">
+        <v>-33.9917082</v>
+      </c>
+      <c r="D110">
+        <v>77.02202248573303</v>
+      </c>
+      <c r="E110">
+        <v>-34.1596407</v>
+      </c>
+      <c r="F110">
+        <v>77.02202248573303</v>
+      </c>
+      <c r="G110">
+        <v>-30.4496385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>77.7119243144989</v>
+      </c>
+      <c r="C111">
+        <v>-33.9816542</v>
+      </c>
+      <c r="D111">
+        <v>77.7119243144989</v>
+      </c>
+      <c r="E111">
+        <v>-34.16079</v>
+      </c>
+      <c r="F111">
+        <v>77.7119243144989</v>
+      </c>
+      <c r="G111">
+        <v>-30.7766436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>78.39575219154358</v>
+      </c>
+      <c r="C112">
+        <v>-33.9953101</v>
+      </c>
+      <c r="D112">
+        <v>78.39575219154358</v>
+      </c>
+      <c r="E112">
+        <v>-34.1599824</v>
+      </c>
+      <c r="F112">
+        <v>78.39575219154358</v>
+      </c>
+      <c r="G112">
+        <v>-31.0125908</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>79.11232733726501</v>
+      </c>
+      <c r="C113">
+        <v>-33.9893298</v>
+      </c>
+      <c r="D113">
+        <v>79.11232733726501</v>
+      </c>
+      <c r="E113">
+        <v>-34.1752777</v>
+      </c>
+      <c r="F113">
+        <v>79.11232733726501</v>
+      </c>
+      <c r="G113">
+        <v>-31.1696379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>79.79423069953918</v>
+      </c>
+      <c r="C114">
+        <v>-33.9890314</v>
+      </c>
+      <c r="D114">
+        <v>79.79423069953918</v>
+      </c>
+      <c r="E114">
+        <v>-34.1837869</v>
+      </c>
+      <c r="F114">
+        <v>79.79423069953918</v>
+      </c>
+      <c r="G114">
+        <v>-25.6481696</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>80.55878043174744</v>
+      </c>
+      <c r="C115">
+        <v>-33.9902486</v>
+      </c>
+      <c r="D115">
+        <v>80.55878043174744</v>
+      </c>
+      <c r="E115">
+        <v>-34.1789472</v>
+      </c>
+      <c r="F115">
+        <v>80.55878043174744</v>
+      </c>
+      <c r="G115">
+        <v>-21.053401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>81.29615187644958</v>
+      </c>
+      <c r="C116">
+        <v>-33.9862417</v>
+      </c>
+      <c r="D116">
+        <v>81.29615187644958</v>
+      </c>
+      <c r="E116">
+        <v>-34.1602855</v>
+      </c>
+      <c r="F116">
+        <v>81.29615187644958</v>
+      </c>
+      <c r="G116">
+        <v>-23.7076524</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>81.97179841995239</v>
+      </c>
+      <c r="C117">
+        <v>-33.9916259</v>
+      </c>
+      <c r="D117">
+        <v>81.97179841995239</v>
+      </c>
+      <c r="E117">
+        <v>-34.1725118</v>
+      </c>
+      <c r="F117">
+        <v>81.97179841995239</v>
+      </c>
+      <c r="G117">
+        <v>-24.7704338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>82.6626296043396</v>
+      </c>
+      <c r="C118">
+        <v>-33.9714808</v>
+      </c>
+      <c r="D118">
+        <v>82.6626296043396</v>
+      </c>
+      <c r="E118">
+        <v>-34.1630749</v>
+      </c>
+      <c r="F118">
+        <v>82.6626296043396</v>
+      </c>
+      <c r="G118">
+        <v>-25.649088</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>83.32293462753296</v>
+      </c>
+      <c r="C119">
+        <v>-33.9880427</v>
+      </c>
+      <c r="D119">
+        <v>83.32293462753296</v>
+      </c>
+      <c r="E119">
+        <v>-34.1708778</v>
+      </c>
+      <c r="F119">
+        <v>83.32293462753296</v>
+      </c>
+      <c r="G119">
+        <v>-26.1855839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>84.01261591911316</v>
+      </c>
+      <c r="C120">
+        <v>-33.9808267</v>
+      </c>
+      <c r="D120">
+        <v>84.01261591911316</v>
+      </c>
+      <c r="E120">
+        <v>-34.1710766</v>
+      </c>
+      <c r="F120">
+        <v>84.01261591911316</v>
+      </c>
+      <c r="G120">
+        <v>-26.682193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>84.66133117675781</v>
+      </c>
+      <c r="C121">
+        <v>-33.9849749</v>
+      </c>
+      <c r="D121">
+        <v>84.66133117675781</v>
+      </c>
+      <c r="E121">
+        <v>-34.1741581</v>
+      </c>
+      <c r="F121">
+        <v>84.66133117675781</v>
+      </c>
+      <c r="G121">
+        <v>-26.4689723</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>85.36110496520996</v>
+      </c>
+      <c r="C122">
+        <v>-33.9420181</v>
+      </c>
+      <c r="D122">
+        <v>85.36110496520996</v>
+      </c>
+      <c r="E122">
+        <v>-34.1542572</v>
+      </c>
+      <c r="F122">
+        <v>85.36110496520996</v>
+      </c>
+      <c r="G122">
+        <v>-25.5495785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>86.11158299446106</v>
+      </c>
+      <c r="C123">
+        <v>-33.9359701</v>
+      </c>
+      <c r="D123">
+        <v>86.11158299446106</v>
+      </c>
+      <c r="E123">
+        <v>-34.1529029</v>
+      </c>
+      <c r="F123">
+        <v>86.11158299446106</v>
+      </c>
+      <c r="G123">
+        <v>-25.2014818</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>86.79229831695557</v>
+      </c>
+      <c r="C124">
+        <v>-33.8943959</v>
+      </c>
+      <c r="D124">
+        <v>86.79229831695557</v>
+      </c>
+      <c r="E124">
+        <v>-34.1616491</v>
+      </c>
+      <c r="F124">
+        <v>86.79229831695557</v>
+      </c>
+      <c r="G124">
+        <v>-25.6390446</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>87.49483513832092</v>
+      </c>
+      <c r="C125">
+        <v>-33.889547</v>
+      </c>
+      <c r="D125">
+        <v>87.49483513832092</v>
+      </c>
+      <c r="E125">
+        <v>-34.1674392</v>
+      </c>
+      <c r="F125">
+        <v>87.49483513832092</v>
+      </c>
+      <c r="G125">
+        <v>-25.7457682</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>88.21116065979004</v>
+      </c>
+      <c r="C126">
+        <v>-33.890073</v>
+      </c>
+      <c r="D126">
+        <v>88.21116065979004</v>
+      </c>
+      <c r="E126">
+        <v>-34.1587466</v>
+      </c>
+      <c r="F126">
+        <v>88.21116065979004</v>
+      </c>
+      <c r="G126">
+        <v>-26.366125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>88.89560866355896</v>
+      </c>
+      <c r="C127">
+        <v>-33.8474464</v>
+      </c>
+      <c r="D127">
+        <v>88.89560866355896</v>
+      </c>
+      <c r="E127">
+        <v>-34.1601382</v>
+      </c>
+      <c r="F127">
+        <v>88.89560866355896</v>
+      </c>
+      <c r="G127">
+        <v>-26.7810944</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>89.57756352424622</v>
+      </c>
+      <c r="C128">
+        <v>-33.8315729</v>
+      </c>
+      <c r="D128">
+        <v>89.57756352424622</v>
+      </c>
+      <c r="E128">
+        <v>-34.1445723</v>
+      </c>
+      <c r="F128">
+        <v>89.57756352424622</v>
+      </c>
+      <c r="G128">
+        <v>-26.9163772</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>90.27691030502319</v>
+      </c>
+      <c r="C129">
+        <v>-33.8045509</v>
+      </c>
+      <c r="D129">
+        <v>90.27691030502319</v>
+      </c>
+      <c r="E129">
+        <v>-34.1535179</v>
+      </c>
+      <c r="F129">
+        <v>90.27691030502319</v>
+      </c>
+      <c r="G129">
+        <v>-26.8127966</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>90.93917536735535</v>
+      </c>
+      <c r="C130">
+        <v>-33.7680462</v>
+      </c>
+      <c r="D130">
+        <v>90.93917536735535</v>
+      </c>
+      <c r="E130">
+        <v>-34.1542199</v>
+      </c>
+      <c r="F130">
+        <v>90.93917536735535</v>
+      </c>
+      <c r="G130">
+        <v>-27.1068547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>91.62764573097229</v>
+      </c>
+      <c r="C131">
+        <v>-33.7380924</v>
+      </c>
+      <c r="D131">
+        <v>91.62764573097229</v>
+      </c>
+      <c r="E131">
+        <v>-34.1306136</v>
+      </c>
+      <c r="F131">
+        <v>91.62764573097229</v>
+      </c>
+      <c r="G131">
+        <v>-27.537567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>92.37746000289917</v>
+      </c>
+      <c r="C132">
+        <v>-33.6864213</v>
+      </c>
+      <c r="D132">
+        <v>92.37746000289917</v>
+      </c>
+      <c r="E132">
+        <v>-34.122132</v>
+      </c>
+      <c r="F132">
+        <v>92.37746000289917</v>
+      </c>
+      <c r="G132">
+        <v>-27.7750498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>93.0536847114563</v>
+      </c>
+      <c r="C133">
+        <v>-33.634047</v>
+      </c>
+      <c r="D133">
+        <v>93.0536847114563</v>
+      </c>
+      <c r="E133">
+        <v>-34.1309592</v>
+      </c>
+      <c r="F133">
+        <v>93.0536847114563</v>
+      </c>
+      <c r="G133">
+        <v>-27.6232078</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>93.80907344818115</v>
+      </c>
+      <c r="C134">
+        <v>-33.6002644</v>
+      </c>
+      <c r="D134">
+        <v>93.80907344818115</v>
+      </c>
+      <c r="E134">
+        <v>-34.1244248</v>
+      </c>
+      <c r="F134">
+        <v>93.80907344818115</v>
+      </c>
+      <c r="G134">
+        <v>-27.6298722</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>94.47030663490295</v>
+      </c>
+      <c r="C135">
+        <v>-33.5616173</v>
+      </c>
+      <c r="D135">
+        <v>94.47030663490295</v>
+      </c>
+      <c r="E135">
+        <v>-34.1153865</v>
+      </c>
+      <c r="F135">
+        <v>94.47030663490295</v>
+      </c>
+      <c r="G135">
+        <v>-27.8622313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>95.14510941505432</v>
+      </c>
+      <c r="C136">
+        <v>-33.5258581</v>
+      </c>
+      <c r="D136">
+        <v>95.14510941505432</v>
+      </c>
+      <c r="E136">
+        <v>-34.1250149</v>
+      </c>
+      <c r="F136">
+        <v>95.14510941505432</v>
+      </c>
+      <c r="G136">
+        <v>-28.0046231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>95.83415794372559</v>
+      </c>
+      <c r="C137">
+        <v>-33.4835514</v>
+      </c>
+      <c r="D137">
+        <v>95.83415794372559</v>
+      </c>
+      <c r="E137">
+        <v>-34.1130074</v>
+      </c>
+      <c r="F137">
+        <v>95.83415794372559</v>
+      </c>
+      <c r="G137">
+        <v>-28.0326023</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>96.57410526275635</v>
+      </c>
+      <c r="C138">
+        <v>-33.4212278</v>
+      </c>
+      <c r="D138">
+        <v>96.57410526275635</v>
+      </c>
+      <c r="E138">
+        <v>-34.1228055</v>
+      </c>
+      <c r="F138">
+        <v>96.57410526275635</v>
+      </c>
+      <c r="G138">
+        <v>-27.8774006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>97.26153063774109</v>
+      </c>
+      <c r="C139">
+        <v>-33.3876132</v>
+      </c>
+      <c r="D139">
+        <v>97.26153063774109</v>
+      </c>
+      <c r="E139">
+        <v>-34.0930515</v>
+      </c>
+      <c r="F139">
+        <v>97.26153063774109</v>
+      </c>
+      <c r="G139">
+        <v>-27.9235005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>97.94461464881897</v>
+      </c>
+      <c r="C140">
+        <v>-33.3473057</v>
+      </c>
+      <c r="D140">
+        <v>97.94461464881897</v>
+      </c>
+      <c r="E140">
+        <v>-34.0855483</v>
+      </c>
+      <c r="F140">
+        <v>97.94461464881897</v>
+      </c>
+      <c r="G140">
+        <v>-28.0656753</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>98.5960156917572</v>
+      </c>
+      <c r="C141">
+        <v>-33.3089531</v>
+      </c>
+      <c r="D141">
+        <v>98.5960156917572</v>
+      </c>
+      <c r="E141">
+        <v>-34.0922008</v>
+      </c>
+      <c r="F141">
+        <v>98.5960156917572</v>
+      </c>
+      <c r="G141">
+        <v>-28.1901955</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>99.31284976005554</v>
+      </c>
+      <c r="C142">
+        <v>-33.2659844</v>
+      </c>
+      <c r="D142">
+        <v>99.31284976005554</v>
+      </c>
+      <c r="E142">
+        <v>-34.1060194</v>
+      </c>
+      <c r="F142">
+        <v>99.31284976005554</v>
+      </c>
+      <c r="G142">
+        <v>-28.1938965</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>100.0168962478638</v>
+      </c>
+      <c r="C143">
+        <v>-33.2149547</v>
+      </c>
+      <c r="D143">
+        <v>100.0168962478638</v>
+      </c>
+      <c r="E143">
+        <v>-34.1068456</v>
+      </c>
+      <c r="F143">
+        <v>100.0168962478638</v>
+      </c>
+      <c r="G143">
+        <v>-28.3605642</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>100.7093110084534</v>
+      </c>
+      <c r="C144">
+        <v>-33.1679161</v>
+      </c>
+      <c r="D144">
+        <v>100.7093110084534</v>
+      </c>
+      <c r="E144">
+        <v>-34.0944177</v>
+      </c>
+      <c r="F144">
+        <v>100.7093110084534</v>
+      </c>
+      <c r="G144">
+        <v>-28.4998857</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>101.3950870037079</v>
+      </c>
+      <c r="C145">
+        <v>-33.108493</v>
+      </c>
+      <c r="D145">
+        <v>101.3950870037079</v>
+      </c>
+      <c r="E145">
+        <v>-34.0972005</v>
+      </c>
+      <c r="F145">
+        <v>101.3950870037079</v>
+      </c>
+      <c r="G145">
+        <v>-28.5340799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>102.1090455055237</v>
+      </c>
+      <c r="C146">
+        <v>-33.0598421</v>
+      </c>
+      <c r="D146">
+        <v>102.1090455055237</v>
+      </c>
+      <c r="E146">
+        <v>-34.0760631</v>
+      </c>
+      <c r="F146">
+        <v>102.1090455055237</v>
+      </c>
+      <c r="G146">
+        <v>-28.6298929</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>102.8465991020203</v>
+      </c>
+      <c r="C147">
+        <v>-33.0005014</v>
+      </c>
+      <c r="D147">
+        <v>102.8465991020203</v>
+      </c>
+      <c r="E147">
+        <v>-34.0922561</v>
+      </c>
+      <c r="F147">
+        <v>102.8465991020203</v>
+      </c>
+      <c r="G147">
+        <v>-28.7865804</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>103.5202085971832</v>
+      </c>
+      <c r="C148">
+        <v>-32.9138486</v>
+      </c>
+      <c r="D148">
+        <v>103.5202085971832</v>
+      </c>
+      <c r="E148">
+        <v>-34.0786219</v>
+      </c>
+      <c r="F148">
+        <v>103.5202085971832</v>
+      </c>
+      <c r="G148">
+        <v>-28.9622431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>104.226774930954</v>
+      </c>
+      <c r="C149">
+        <v>-32.8506802</v>
+      </c>
+      <c r="D149">
+        <v>104.226774930954</v>
+      </c>
+      <c r="E149">
+        <v>-34.0634045</v>
+      </c>
+      <c r="F149">
+        <v>104.226774930954</v>
+      </c>
+      <c r="G149">
+        <v>-29.0990953</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>104.9945685863495</v>
+      </c>
+      <c r="C150">
+        <v>-32.7823412</v>
+      </c>
+      <c r="D150">
+        <v>104.9945685863495</v>
+      </c>
+      <c r="E150">
+        <v>-34.0559624</v>
+      </c>
+      <c r="F150">
+        <v>104.9945685863495</v>
+      </c>
+      <c r="G150">
+        <v>-28.934622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>105.7281942367554</v>
+      </c>
+      <c r="C151">
+        <v>-32.699784</v>
+      </c>
+      <c r="D151">
+        <v>105.7281942367554</v>
+      </c>
+      <c r="E151">
+        <v>-34.0658131</v>
+      </c>
+      <c r="F151">
+        <v>105.7281942367554</v>
+      </c>
+      <c r="G151">
+        <v>-28.7572718</v>
       </c>
     </row>
   </sheetData>
